--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>名字</t>
   </si>
@@ -125,27 +125,6 @@
   </si>
   <si>
     <t>SpellImmunityType</t>
-  </si>
-  <si>
-    <t>item_kv_generator_test1</t>
-  </si>
-  <si>
-    <t>ability_lua</t>
-  </si>
-  <si>
-    <t>damage 0.1 0.2 0.3 0.4</t>
-  </si>
-  <si>
-    <t>1 1 2 3 4</t>
-  </si>
-  <si>
-    <t>1000 2000 30000 40000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2 3 4 </t>
-  </si>
-  <si>
-    <t>1 1 1 1</t>
   </si>
 </sst>
 </file>
@@ -163,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -195,28 +174,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -523,39 +499,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +554,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -609,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -622,37 +598,37 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -680,48 +656,6 @@
         <v>36</v>
       </c>
       <c r="X2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>名字</t>
   </si>
@@ -52,6 +52,9 @@
     <t>目标标签</t>
   </si>
   <si>
+    <t>技能动画</t>
+  </si>
+  <si>
     <t>无视魔免</t>
   </si>
   <si>
@@ -70,33 +73,6 @@
     <t>AbilityValues[{]</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>[}]</t>
   </si>
   <si>
@@ -124,7 +100,43 @@
     <t>AbilityUnitTargetFlags</t>
   </si>
   <si>
+    <t>AbilityCastAnimation</t>
+  </si>
+  <si>
+    <t>AbilityCastPoint</t>
+  </si>
+  <si>
     <t>SpellImmunityType</t>
+  </si>
+  <si>
+    <t>AbilitySound</t>
+  </si>
+  <si>
+    <t>global_light_bolt</t>
+  </si>
+  <si>
+    <t>ability_lua</t>
+  </si>
+  <si>
+    <t>abilities/global_light_bolt</t>
+  </si>
+  <si>
+    <t>zuus_lightning_bolt</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_AOE</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_5</t>
+  </si>
+  <si>
+    <t>Hero_SkywrathMage.ArcaneBolt.Cast</t>
   </si>
 </sst>
 </file>
@@ -132,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +155,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -174,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -182,19 +200,31 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -499,36 +529,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="55.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -557,10 +590,10 @@
       <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -581,81 +614,152 @@
       <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AA2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
   <si>
     <t>名字</t>
   </si>
@@ -73,6 +73,33 @@
     <t>AbilityValues[{]</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>[}]</t>
   </si>
   <si>
@@ -112,6 +139,15 @@
     <t>AbilitySound</t>
   </si>
   <si>
+    <t>AbilityCharges</t>
+  </si>
+  <si>
+    <t>AbilityDuration</t>
+  </si>
+  <si>
+    <t>AbilityChannelTime</t>
+  </si>
+  <si>
     <t>global_light_bolt</t>
   </si>
   <si>
@@ -137,6 +173,466 @@
   </si>
   <si>
     <t>Hero_SkywrathMage.ArcaneBolt.Cast</t>
+  </si>
+  <si>
+    <t>spell_base</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/spell_base</t>
+  </si>
+  <si>
+    <t>mana_bonus 100 300 600</t>
+  </si>
+  <si>
+    <t>mana_regen  1 3 5</t>
+  </si>
+  <si>
+    <t>crystal_maiden_brilliance_aura</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_NONE</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_1</t>
+  </si>
+  <si>
+    <t>spell_enhancement</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/spell_enhancement</t>
+  </si>
+  <si>
+    <t>mana_bonus 400 900 1500</t>
+  </si>
+  <si>
+    <t>mana_regen  3 7 12</t>
+  </si>
+  <si>
+    <t>spell_major</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/spell_major</t>
+  </si>
+  <si>
+    <t>mana_bonus 600 1500 2600</t>
+  </si>
+  <si>
+    <t>mana_regen  6 13 20</t>
+  </si>
+  <si>
+    <t>mana_recovery</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/mana_recovery</t>
+  </si>
+  <si>
+    <t>recovery_percentage 0.05 0.08 0.1</t>
+  </si>
+  <si>
+    <t>recovery_probability 0.2 0.3 0.4</t>
+  </si>
+  <si>
+    <t>keeper_of_the_light_chakra_magic</t>
+  </si>
+  <si>
+    <t>spell_accelerate</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/spell_accelerate</t>
+  </si>
+  <si>
+    <t>cool_down_reduction 30 40 50</t>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+  </si>
+  <si>
+    <t>spell_master</t>
+  </si>
+  <si>
+    <t>abilities/basic_magic/spell_master</t>
+  </si>
+  <si>
+    <t>mana_bonus 1000 2500 4500</t>
+  </si>
+  <si>
+    <t>mana_regen  10 25 45</t>
+  </si>
+  <si>
+    <t>magic_missile</t>
+  </si>
+  <si>
+    <t>abilities/basic_ability/magic_missile</t>
+  </si>
+  <si>
+    <t>primary_state_factor 0.5 1.5 3</t>
+  </si>
+  <si>
+    <t>basic_damage 50 100 150</t>
+  </si>
+  <si>
+    <t>50 100 150</t>
+  </si>
+  <si>
+    <t>skywrath_mage_concussive_shot</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_ALL</t>
+  </si>
+  <si>
+    <t>Hero_SkywrathMage.ConcussiveShot.Cast</t>
+  </si>
+  <si>
+    <t>fitness_base</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_base</t>
+  </si>
+  <si>
+    <t>health_bonus 100 300 600</t>
+  </si>
+  <si>
+    <t>health_regen  1 3 5</t>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>fitness_enhancement</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_enhancement</t>
+  </si>
+  <si>
+    <t>health_bonus 400 900 1500</t>
+  </si>
+  <si>
+    <t>health_regen  3 7 12</t>
+  </si>
+  <si>
+    <t>fitness_major</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_major</t>
+  </si>
+  <si>
+    <t>health_bonus 600 1500 2600</t>
+  </si>
+  <si>
+    <t>health_regen  6 13 20</t>
+  </si>
+  <si>
+    <t>fitness_master</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_master</t>
+  </si>
+  <si>
+    <t>health_bonus 1000 2500 4500</t>
+  </si>
+  <si>
+    <t>health_regen 10 25 45</t>
+  </si>
+  <si>
+    <t>fitness_tenacity</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_tenacity</t>
+  </si>
+  <si>
+    <t>status_resistance 10 25 40</t>
+  </si>
+  <si>
+    <t>omniknight_repel</t>
+  </si>
+  <si>
+    <t>fitness_dodge</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_dodge</t>
+  </si>
+  <si>
+    <t>dodge_probability 6 12 18</t>
+  </si>
+  <si>
+    <t>faceless_void_time_walk</t>
+  </si>
+  <si>
+    <t>fitness_regen</t>
+  </si>
+  <si>
+    <t>abilities/basic_fitness/fitness_regen</t>
+  </si>
+  <si>
+    <t>health_regen_factor 0.05 0.1 0.15</t>
+  </si>
+  <si>
+    <t>treant_living_armor</t>
+  </si>
+  <si>
+    <t>attack_echo</t>
+  </si>
+  <si>
+    <t>abilities/basic_ability/attack_echo</t>
+  </si>
+  <si>
+    <t>primary_state_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>marci_grapple</t>
+  </si>
+  <si>
+    <t>summon_zombie</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/summon_zombie</t>
+  </si>
+  <si>
+    <t>zombie_num 2 3 4</t>
+  </si>
+  <si>
+    <t>skeleton_king_vampiric_aura</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
+  </si>
+  <si>
+    <t>zombie_augmentation</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/zombie_augmentation</t>
+  </si>
+  <si>
+    <t>health_bonus_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>damage_bonus_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>skeleton_king_hellfire_blast</t>
+  </si>
+  <si>
+    <t>swallow_zombie</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/swallow_zombie</t>
+  </si>
+  <si>
+    <t>recovery_factor 10 20 30</t>
+  </si>
+  <si>
+    <t>base_recovery 100 200 300</t>
+  </si>
+  <si>
+    <t>5 4 3</t>
+  </si>
+  <si>
+    <t>undying_soul_rip</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
+    <t>zombie_blast</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/zombie_blast</t>
+  </si>
+  <si>
+    <t>damage_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>blast_radius 200 200 200</t>
+  </si>
+  <si>
+    <t>treant_leech_seed</t>
+  </si>
+  <si>
+    <t>resentment_stacking</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/resentment_stacking</t>
+  </si>
+  <si>
+    <t>damage_bonus_per_stack 5 10 20</t>
+  </si>
+  <si>
+    <t>attack_speed_bonus_per_stack 2 4 6</t>
+  </si>
+  <si>
+    <t>undying_tombstone</t>
+  </si>
+  <si>
+    <t>sword_mean_stacking</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_mean_stacking</t>
+  </si>
+  <si>
+    <t>stacking_probability 10 20 30</t>
+  </si>
+  <si>
+    <t>extra_damage_percentage 20 30 40</t>
+  </si>
+  <si>
+    <t>juggernaut_blade_dance</t>
+  </si>
+  <si>
+    <t>sword_mean_accelerate</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_mean_accelerate</t>
+  </si>
+  <si>
+    <t>trigger_probabilty 10 15 20</t>
+  </si>
+  <si>
+    <t>juggernaut_swift_slash</t>
+  </si>
+  <si>
+    <t>sword_shot</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_shot</t>
+  </si>
+  <si>
+    <t>primary_state_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>basic_damage 100 250 400</t>
+  </si>
+  <si>
+    <t>charge_cost 3</t>
+  </si>
+  <si>
+    <t>phantom_assassin_stifling_dagger</t>
+  </si>
+  <si>
+    <t>sword_sudden</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_sudden</t>
+  </si>
+  <si>
+    <t>charge_cost 5</t>
+  </si>
+  <si>
+    <t>max_travel_distance 500</t>
+  </si>
+  <si>
+    <t>min_travel_distance 50</t>
+  </si>
+  <si>
+    <t>radius 100</t>
+  </si>
+  <si>
+    <t>void_spirit_astral_step</t>
+  </si>
+  <si>
+    <t>sword_rain</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_rain</t>
+  </si>
+  <si>
+    <t>primary_state_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>basic_damage 100 200 300</t>
+  </si>
+  <si>
+    <t>charge_cost_per_sword 1</t>
+  </si>
+  <si>
+    <t>travel_distance 2000</t>
+  </si>
+  <si>
+    <t>hit_radius 50</t>
+  </si>
+  <si>
+    <t>interval 0.05</t>
+  </si>
+  <si>
+    <t>shot_range 500</t>
+  </si>
+  <si>
+    <t>charge_cost 1</t>
+  </si>
+  <si>
+    <t>pangolier_swashbuckle</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT
+ | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+  </si>
+  <si>
+    <t>dodge_move</t>
+  </si>
+  <si>
+    <t>abilities/marksmanship/dodge_move</t>
+  </si>
+  <si>
+    <t>distance 200 250 300</t>
+  </si>
+  <si>
+    <t>speed 1000</t>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_IMMEDIATE | DOTA_ABILITY_BEHAVIOR_POINT</t>
+  </si>
+  <si>
+    <t>leverage_back</t>
+  </si>
+  <si>
+    <t>abilities/marksmanship/leverage_back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage_reduction 50 35 20 </t>
+  </si>
+  <si>
+    <t>distance 50</t>
+  </si>
+  <si>
+    <t>windrunner_windrun</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_TOGGLE | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>shadow_arrow</t>
+  </si>
+  <si>
+    <t>abilities/marksmanship/shadow_arrow</t>
+  </si>
+  <si>
+    <t>damage_factor 0.5 0.8 1</t>
+  </si>
+  <si>
+    <t>arrow_num 1 2 3</t>
+  </si>
+  <si>
+    <t>probability 10 20 30</t>
+  </si>
+  <si>
+    <t>drow_ranger_multishot</t>
   </si>
 </sst>
 </file>
@@ -192,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -200,17 +696,32 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,11 +729,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -529,39 +1046,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="55.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -590,16 +1110,16 @@
       <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -614,12 +1134,15 @@
       <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="4" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -636,130 +1159,1922 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6">
-        <v>7</v>
-      </c>
-      <c r="L2" s="6">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6">
-        <v>9</v>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>3</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="7">
+        <v>51</v>
+      </c>
+      <c r="X3" s="4">
         <v>0.4</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2">
+        <v>3</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2">
+        <v>3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2">
+        <v>3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2">
+        <v>3</v>
+      </c>
+      <c r="P27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="60">
+      <c r="A28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="5">
+        <v>3</v>
+      </c>
+      <c r="P28" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="31.5">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>50</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="44.25">
+      <c r="A31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2">
+        <v>3</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
   <si>
     <t>名字</t>
   </si>
@@ -232,10 +232,10 @@
     <t>abilities/basic_magic/mana_recovery</t>
   </si>
   <si>
-    <t>recovery_percentage 0.05 0.08 0.1</t>
-  </si>
-  <si>
-    <t>recovery_probability 0.2 0.3 0.4</t>
+    <t>recovery_percentage 5 8 10</t>
+  </si>
+  <si>
+    <t>recovery_probability 20 30 40</t>
   </si>
   <si>
     <t>keeper_of_the_light_chakra_magic</t>
@@ -633,6 +633,51 @@
   </si>
   <si>
     <t>drow_ranger_multishot</t>
+  </si>
+  <si>
+    <t>ice_piton</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/ice_piton</t>
+  </si>
+  <si>
+    <t>primary_state_factor 100 150 200</t>
+  </si>
+  <si>
+    <t>aoe_radius 300</t>
+  </si>
+  <si>
+    <t>slow_rate 20 35 50</t>
+  </si>
+  <si>
+    <t>slow_duration 2</t>
+  </si>
+  <si>
+    <t>tusk_ice_shards</t>
+  </si>
+  <si>
+    <t>cold_touch</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/cold_touch</t>
+  </si>
+  <si>
+    <t>regen_reduction_per_stack 10 15 20</t>
+  </si>
+  <si>
+    <t>debuff_duration 2</t>
+  </si>
+  <si>
+    <t>max_stack_level 5</t>
+  </si>
+  <si>
+    <t>freezing_duration 3</t>
+  </si>
+  <si>
+    <t>damage_bonus_percentage 100 200 00</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -640,7 +685,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,12 +696,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -688,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -696,13 +735,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -714,17 +750,8 @@
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -739,7 +766,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1046,42 +1073,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1139,9 +1166,9 @@
         <v>13</v>
       </c>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
       <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1159,31 +1186,31 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1225,13 +1252,13 @@
       <c r="Z2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AD2" s="1"/>
@@ -1291,9 +1318,9 @@
       <c r="Z3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -1307,10 +1334,10 @@
         <v>54</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="2"/>
@@ -1355,9 +1382,9 @@
       <c r="Z4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -1371,10 +1398,10 @@
         <v>63</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2"/>
@@ -1419,9 +1446,9 @@
       <c r="Z5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -1435,10 +1462,10 @@
         <v>67</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="2"/>
@@ -1483,9 +1510,9 @@
       <c r="Z6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
       <c r="AD6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -1499,10 +1526,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="2"/>
@@ -1547,9 +1574,9 @@
       <c r="Z7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -1563,7 +1590,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="2"/>
@@ -1609,9 +1636,9 @@
       <c r="Z8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -1625,10 +1652,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="2"/>
@@ -1673,9 +1700,9 @@
       <c r="Z9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
       <c r="AD9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -1689,10 +1716,10 @@
         <v>84</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="2"/>
@@ -1737,9 +1764,9 @@
       <c r="Z10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
       <c r="AD10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -1753,10 +1780,10 @@
         <v>93</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2"/>
@@ -1801,9 +1828,9 @@
       <c r="Z11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -1817,10 +1844,10 @@
         <v>98</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="2"/>
@@ -1865,9 +1892,9 @@
       <c r="Z12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1881,10 +1908,10 @@
         <v>102</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="2"/>
@@ -1929,9 +1956,9 @@
       <c r="Z13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
       <c r="AD13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1945,10 +1972,10 @@
         <v>106</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G14" s="2"/>
@@ -1993,9 +2020,9 @@
       <c r="Z14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
       <c r="AD14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -2009,7 +2036,7 @@
         <v>110</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="2"/>
@@ -2055,9 +2082,9 @@
       <c r="Z15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
       <c r="AD15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -2071,10 +2098,10 @@
         <v>114</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="2"/>
@@ -2119,9 +2146,9 @@
       <c r="Z16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2135,7 +2162,7 @@
         <v>118</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="F17" s="2"/>
@@ -2181,9 +2208,9 @@
       <c r="Z17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -2197,7 +2224,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F18" s="2"/>
@@ -2243,9 +2270,9 @@
       <c r="Z18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2259,7 +2286,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="2"/>
@@ -2301,9 +2328,9 @@
       <c r="Z19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2317,10 +2344,10 @@
         <v>131</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G20" s="2"/>
@@ -2361,9 +2388,9 @@
       <c r="Z20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
       <c r="AD20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2377,10 +2404,10 @@
         <v>136</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G21" s="2"/>
@@ -2425,9 +2452,9 @@
       <c r="Z21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
       <c r="AD21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2441,10 +2468,10 @@
         <v>144</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G22" s="2"/>
@@ -2485,9 +2512,9 @@
       <c r="Z22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
       <c r="AD22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -2501,13 +2528,13 @@
         <v>149</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2545,9 +2572,9 @@
       <c r="Z23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -2561,13 +2588,13 @@
         <v>154</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2605,9 +2632,9 @@
       <c r="Z24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
       <c r="AD24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -2621,11 +2648,11 @@
         <v>159</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2663,9 +2690,9 @@
       <c r="Z25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
       <c r="AD25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
@@ -2679,13 +2706,13 @@
         <v>163</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>166</v>
       </c>
       <c r="H26" s="2"/>
@@ -2732,8 +2759,8 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
       <c r="AD26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
@@ -2747,22 +2774,22 @@
         <v>169</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>173</v>
       </c>
       <c r="K27" s="2"/>
@@ -2806,8 +2833,8 @@
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="60">
@@ -2821,45 +2848,45 @@
         <v>176</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="5">
-        <v>3</v>
-      </c>
-      <c r="P28" s="5">
+      <c r="O28" s="2">
+        <v>3</v>
+      </c>
+      <c r="P28" s="2">
         <v>2</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="3" t="s">
         <v>186</v>
       </c>
       <c r="T28" s="1" t="s">
@@ -2872,27 +2899,27 @@
       <c r="W28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="2">
         <v>0</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5">
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
         <v>5</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28" s="2">
         <v>5</v>
       </c>
       <c r="AD28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="33">
       <c r="A29" s="1" t="s">
         <v>188</v>
       </c>
@@ -2903,10 +2930,10 @@
         <v>189</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>191</v>
       </c>
       <c r="G29" s="2"/>
@@ -2952,7 +2979,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5">
       <c r="A30" s="1" t="s">
         <v>194</v>
       </c>
@@ -2963,20 +2990,20 @@
         <v>195</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2">
@@ -3014,7 +3041,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3025,20 +3052,20 @@
         <v>201</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2">
@@ -3076,6 +3103,146 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="527">
   <si>
     <t>名字</t>
   </si>
@@ -133,9 +133,18 @@
     <t>AbilityCastPoint</t>
   </si>
   <si>
+    <t>AbilityCastRangeBuffer</t>
+  </si>
+  <si>
+    <t>SpellDispellableType</t>
+  </si>
+  <si>
     <t>SpellImmunityType</t>
   </si>
   <si>
+    <t>AbilityUnitDamageType</t>
+  </si>
+  <si>
     <t>AbilitySound</t>
   </si>
   <si>
@@ -397,7 +406,16 @@
     <t>abilities/necromancer_collection/summon_zombie</t>
   </si>
   <si>
-    <t>zombie_num 2 3 4</t>
+    <t>force_of_rule_per_zombie 5</t>
+  </si>
+  <si>
+    <t>health_bonus_factor 15 30 45</t>
+  </si>
+  <si>
+    <t>damage_bonus_factor 5 10 15</t>
+  </si>
+  <si>
+    <t>base_zombie_num 1</t>
   </si>
   <si>
     <t>skeleton_king_vampiric_aura</t>
@@ -427,7 +445,7 @@
     <t>abilities/necromancer_collection/swallow_zombie</t>
   </si>
   <si>
-    <t>recovery_factor 10 20 30</t>
+    <t>recovery_factor 50 100 150</t>
   </si>
   <si>
     <t>base_recovery 100 200 300</t>
@@ -457,7 +475,88 @@
     <t>blast_radius 200 200 200</t>
   </si>
   <si>
-    <t>treant_leech_seed</t>
+    <t>pugna_nether_blast</t>
+  </si>
+  <si>
+    <t>shi_du</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/shi_du</t>
+  </si>
+  <si>
+    <t>duration_factor 0.2 0.4 0.6</t>
+  </si>
+  <si>
+    <t>damage_factor 5 10 15</t>
+  </si>
+  <si>
+    <t>pugna_life_drain</t>
+  </si>
+  <si>
+    <t>fu_shen</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/fu_shen</t>
+  </si>
+  <si>
+    <t>health_factor 20 40 60</t>
+  </si>
+  <si>
+    <t>move_speed_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>attack_speed_factor 3 6 9</t>
+  </si>
+  <si>
+    <t>cast_range 300</t>
+  </si>
+  <si>
+    <t>li_ti</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/li_ti</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>you_ming_ji_dian</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/you_ming_ji_dian</t>
+  </si>
+  <si>
+    <t>radius 300</t>
+  </si>
+  <si>
+    <t>cast_range 600 800 100</t>
+  </si>
+  <si>
+    <t>fire_damage_factor 10 20 30</t>
+  </si>
+  <si>
+    <t>attack_stack_factor  0.2 0.3 0.4</t>
+  </si>
+  <si>
+    <t>attack_speed_stack_factor 0.1 0.15 0.2</t>
+  </si>
+  <si>
+    <t>summon_delay 2</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
+  </si>
+  <si>
+    <t>gui_wang_fire</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/gui_wang_fire</t>
+  </si>
+  <si>
+    <t>fire_radius 300</t>
+  </si>
+  <si>
+    <t>burning_interval 0.5</t>
   </si>
   <si>
     <t>resentment_stacking</t>
@@ -466,30 +565,105 @@
     <t>abilities/necromancer_collection/resentment_stacking</t>
   </si>
   <si>
-    <t>damage_bonus_per_stack 5 10 20</t>
-  </si>
-  <si>
-    <t>attack_speed_bonus_per_stack 2 4 6</t>
-  </si>
-  <si>
     <t>undying_tombstone</t>
   </si>
   <si>
+    <t>she_hun_lian_yu</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/she_hun_lian_yu</t>
+  </si>
+  <si>
+    <t>damage_interval 0.2</t>
+  </si>
+  <si>
+    <t>heal_percentage 10 20 30</t>
+  </si>
+  <si>
+    <t>search_radius 800</t>
+  </si>
+  <si>
+    <t>mana_cost_per_wave 10 20 30</t>
+  </si>
+  <si>
+    <t>prepare_time 3</t>
+  </si>
+  <si>
+    <t>100 150 200</t>
+  </si>
+  <si>
+    <t>death_prophet_spirit_siphon</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+  </si>
+  <si>
     <t>sword_mean_stacking</t>
   </si>
   <si>
     <t>abilities/swordmanship/sword_mean_stacking</t>
   </si>
   <si>
-    <t>stacking_probability 10 20 30</t>
-  </si>
-  <si>
-    <t>extra_damage_percentage 20 30 40</t>
+    <t>stacking_factor 0.2 0.3 0.4</t>
+  </si>
+  <si>
+    <t>damage_factor 20 40 60</t>
+  </si>
+  <si>
+    <t>max_stack_factor 3 6 9</t>
+  </si>
+  <si>
+    <t>interval 1</t>
   </si>
   <si>
     <t>juggernaut_blade_dance</t>
   </si>
   <si>
+    <t>sword_shield</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_shield</t>
+  </si>
+  <si>
+    <t>damage_reduction_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>sowrd_mean_cost_per_damage 1</t>
+  </si>
+  <si>
+    <t>juggernaut_blade_fury</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_TOGGLE | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>ju_jian_shu</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/ju_jian_shu</t>
+  </si>
+  <si>
+    <t>damage_factor 200 250 300</t>
+  </si>
+  <si>
+    <t>health_factor 50 75 100</t>
+  </si>
+  <si>
+    <t>charge_cost 5</t>
+  </si>
+  <si>
+    <t>life_factor 0.5 0.75 1</t>
+  </si>
+  <si>
+    <t>delay 0.5</t>
+  </si>
+  <si>
+    <t>cast_range 1000</t>
+  </si>
+  <si>
     <t>sword_mean_accelerate</t>
   </si>
   <si>
@@ -508,7 +682,7 @@
     <t>abilities/swordmanship/sword_shot</t>
   </si>
   <si>
-    <t>primary_state_factor 2 4 6</t>
+    <t>damage_factor 100 150 200</t>
   </si>
   <si>
     <t>basic_damage 100 250 400</t>
@@ -526,7 +700,10 @@
     <t>abilities/swordmanship/sword_sudden</t>
   </si>
   <si>
-    <t>charge_cost 5</t>
+    <t>radius 100</t>
+  </si>
+  <si>
+    <t>charge_cost 10</t>
   </si>
   <si>
     <t>max_travel_distance 500</t>
@@ -535,9 +712,6 @@
     <t>min_travel_distance 50</t>
   </si>
   <si>
-    <t>radius 100</t>
-  </si>
-  <si>
     <t>void_spirit_astral_step</t>
   </si>
   <si>
@@ -547,10 +721,10 @@
     <t>abilities/swordmanship/sword_rain</t>
   </si>
   <si>
-    <t>primary_state_factor 1 2 3</t>
-  </si>
-  <si>
-    <t>basic_damage 100 200 300</t>
+    <t>damage_factor 50 75 100</t>
+  </si>
+  <si>
+    <t>charge_cost 1</t>
   </si>
   <si>
     <t>charge_cost_per_sword 1</t>
@@ -566,9 +740,6 @@
   </si>
   <si>
     <t>shot_range 500</t>
-  </si>
-  <si>
-    <t>charge_cost 1</t>
   </si>
   <si>
     <t>pangolier_swashbuckle</t>
@@ -578,7 +749,16 @@
  | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
   </si>
   <si>
-    <t>ACT_DOTA_CAST_ABILITY_2</t>
+    <t>jian_qi_zong_heng</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/jian_qi_zong_heng</t>
+  </si>
+  <si>
+    <t>damage_factor 25 50 75</t>
+  </si>
+  <si>
+    <t>radius 1000</t>
   </si>
   <si>
     <t>dodge_move</t>
@@ -614,9 +794,6 @@
     <t>windrunner_windrun</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_TOGGLE | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-  </si>
-  <si>
     <t>shadow_arrow</t>
   </si>
   <si>
@@ -647,37 +824,778 @@
     <t>aoe_radius 300</t>
   </si>
   <si>
-    <t>slow_rate 20 35 50</t>
-  </si>
-  <si>
-    <t>slow_duration 2</t>
+    <t>winter_wyvern_splinter_blast</t>
+  </si>
+  <si>
+    <t>ji_han_zhi_qi</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/ji_han_zhi_qi</t>
+  </si>
+  <si>
+    <t>move_slow_rate_per_stack 2 4 6</t>
+  </si>
+  <si>
+    <t>attack_slow_rate_per_stack 2 4 6</t>
+  </si>
+  <si>
+    <t>debuff_duration 2</t>
+  </si>
+  <si>
+    <t>max_stack_level 10</t>
+  </si>
+  <si>
+    <t>han_qi_ru_ti</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/han_qi_ru_ti</t>
+  </si>
+  <si>
+    <t>regen_reduction_per_stack 10 15 20</t>
+  </si>
+  <si>
+    <t>max_stack_level 5</t>
+  </si>
+  <si>
+    <t>han_qi_ru_hun</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/han_qi_ru_hun</t>
+  </si>
+  <si>
+    <t>damage_bonus_percentage 100 200 00</t>
+  </si>
+  <si>
+    <t>freezing_duration 3</t>
+  </si>
+  <si>
+    <t>max_stack_level 50</t>
+  </si>
+  <si>
+    <t>han_qi_fan_she</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/han_qi_fan_she</t>
+  </si>
+  <si>
+    <t>primary_state_factor 20 40 60</t>
+  </si>
+  <si>
+    <t>ice_gland</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/ice_gland</t>
+  </si>
+  <si>
+    <t>distance 600 750 900</t>
+  </si>
+  <si>
+    <t>basic_damage 300 400 500</t>
   </si>
   <si>
     <t>tusk_ice_shards</t>
   </si>
   <si>
-    <t>cold_touch</t>
-  </si>
-  <si>
-    <t>abilities/xuanbingjue/cold_touch</t>
-  </si>
-  <si>
-    <t>regen_reduction_per_stack 10 15 20</t>
-  </si>
-  <si>
-    <t>debuff_duration 2</t>
-  </si>
-  <si>
-    <t>max_stack_level 5</t>
-  </si>
-  <si>
-    <t>freezing_duration 3</t>
-  </si>
-  <si>
-    <t>damage_bonus_percentage 100 200 00</t>
-  </si>
-  <si>
-    <t/>
+    <t>xuan_han_ling_yu</t>
+  </si>
+  <si>
+    <t>abilities/xuanbingjue/xuan_han_ling_yu</t>
+  </si>
+  <si>
+    <t>primary_state_factor 20 30 40</t>
+  </si>
+  <si>
+    <t>damage_interval 1</t>
+  </si>
+  <si>
+    <t>radius 800</t>
+  </si>
+  <si>
+    <t>mana_cost_per_wave 100 150 200</t>
+  </si>
+  <si>
+    <t>crystal_maiden_freezing_field</t>
+  </si>
+  <si>
+    <t>huo_dan_shu</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/huo_dan_shu</t>
+  </si>
+  <si>
+    <t>aoe_damage_percentage 0.5</t>
+  </si>
+  <si>
+    <t>sheng_ming_zhuo_shao</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/sheng_ming_zhuo_shao</t>
+  </si>
+  <si>
+    <t>primary_state_factor 5 10 15</t>
+  </si>
+  <si>
+    <t>duration_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>damage_interval 0.5</t>
+  </si>
+  <si>
+    <t>fa_li_zhuo_shao</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/fa_li_zhuo_shao</t>
+  </si>
+  <si>
+    <t>fang_yu_zhuo_shao</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/fang_yu_zhuo_shao</t>
+  </si>
+  <si>
+    <t>debuff_duration 3</t>
+  </si>
+  <si>
+    <t>reduction_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>zhuo_mu</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/zhuo_mu</t>
+  </si>
+  <si>
+    <t>primary_state_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>fen_tian_zhi_yan</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/fen_tian_zhi_yan</t>
+  </si>
+  <si>
+    <t>primary_state_factor 100 200 300</t>
+  </si>
+  <si>
+    <t>radius 200</t>
+  </si>
+  <si>
+    <t>delay 1</t>
+  </si>
+  <si>
+    <t>interval 0.5</t>
+  </si>
+  <si>
+    <t>duration_factor 0.1</t>
+  </si>
+  <si>
+    <t>base_duration 1.5</t>
+  </si>
+  <si>
+    <t>ember_spirit_flame_guard</t>
+  </si>
+  <si>
+    <t>fen_tian_ling_yu</t>
+  </si>
+  <si>
+    <t>abilities/fentianjue/fen_tian_ling_yu</t>
+  </si>
+  <si>
+    <t>force_of_rule_per_flower 5</t>
+  </si>
+  <si>
+    <t>base_flower_num 1</t>
+  </si>
+  <si>
+    <t>hui_chun_shu</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/hui_chun_shu</t>
+  </si>
+  <si>
+    <t>health_heal_per_mana_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>mana_cost_per_wave 1 2 3</t>
+  </si>
+  <si>
+    <t>wave_interval 0.1</t>
+  </si>
+  <si>
+    <t>zhong_ling_shu</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/zhong_ling_shu</t>
+  </si>
+  <si>
+    <t>primary_state_factor 75 125 200</t>
+  </si>
+  <si>
+    <t>cast_range 2000</t>
+  </si>
+  <si>
+    <t>tree_base_life 5</t>
+  </si>
+  <si>
+    <t>life_factor 1</t>
+  </si>
+  <si>
+    <t>base_damage 50 100 150</t>
+  </si>
+  <si>
+    <t>hoodwink_sharpshooter</t>
+  </si>
+  <si>
+    <t>ji_sheng</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/ji_sheng</t>
+  </si>
+  <si>
+    <t>mana_recover_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>damage_percentage 4 8 12</t>
+  </si>
+  <si>
+    <t>recover_interval 1</t>
+  </si>
+  <si>
+    <t>duration_factor 1</t>
+  </si>
+  <si>
+    <t>treant_leech_seed</t>
+  </si>
+  <si>
+    <t>fu_su</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/fu_su</t>
+  </si>
+  <si>
+    <t>attack_factor 10 20 30</t>
+  </si>
+  <si>
+    <t>attack_speed_factor 10 20 30</t>
+  </si>
+  <si>
+    <t>bound_duration_factor 0.1 0.15 0.2</t>
+  </si>
+  <si>
+    <t>radius 400</t>
+  </si>
+  <si>
+    <t>100 200 300</t>
+  </si>
+  <si>
+    <t>sheng_ming_lian_jie</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/sheng_ming_lian_jie</t>
+  </si>
+  <si>
+    <t>damage_percentage_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>zhuan_sheng_shu</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/zhuan_sheng_shu</t>
+  </si>
+  <si>
+    <t>cold_down_reduction_factor 0.8 1 1.2</t>
+  </si>
+  <si>
+    <t>base_cold_down 60</t>
+  </si>
+  <si>
+    <t>delay 1.5</t>
+  </si>
+  <si>
+    <t>60 50 40</t>
+  </si>
+  <si>
+    <t>treant_overgrowth</t>
+  </si>
+  <si>
+    <t>yun_ling_zhi_jing</t>
+  </si>
+  <si>
+    <t>abilities/xilingji/yun_ling_zhi_jing</t>
+  </si>
+  <si>
+    <t>mana_cost_per_tick 50 75 100</t>
+  </si>
+  <si>
+    <t>probability_factor 1 1.5 2</t>
+  </si>
+  <si>
+    <t>treant_natures_grasp</t>
+  </si>
+  <si>
+    <t>yan_dun</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/yan_dun</t>
+  </si>
+  <si>
+    <t>block_factor 10 15 20</t>
+  </si>
+  <si>
+    <t>pangolier_shield_crash</t>
+  </si>
+  <si>
+    <t>di_ci</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/di_ci</t>
+  </si>
+  <si>
+    <t>knockback_duration 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_factor 80 150 220 </t>
+  </si>
+  <si>
+    <t>rock_resistance 90</t>
+  </si>
+  <si>
+    <t>split_num 2</t>
+  </si>
+  <si>
+    <t>di_dong_shu</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/di_dong_shu</t>
+  </si>
+  <si>
+    <t>delay 0.3</t>
+  </si>
+  <si>
+    <t>distance 800</t>
+  </si>
+  <si>
+    <t>speed 2000</t>
+  </si>
+  <si>
+    <t>base_size_factor 0.25</t>
+  </si>
+  <si>
+    <t>tiny_avalanche</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_VECTOR_TARGETING</t>
+  </si>
+  <si>
+    <t>shi_bao_shu</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/shi_bao_shu</t>
+  </si>
+  <si>
+    <t>damage_factor 50 80 110</t>
+  </si>
+  <si>
+    <t>radius 1500</t>
+  </si>
+  <si>
+    <t>blast_radius 150</t>
+  </si>
+  <si>
+    <t>tiny_toss</t>
+  </si>
+  <si>
+    <t>zhong_li_chang</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/zhong_li_chang</t>
+  </si>
+  <si>
+    <t>move_speed_reduction_factor 5 10 15</t>
+  </si>
+  <si>
+    <t>attack_speed_reduction_factor 5 8 10</t>
+  </si>
+  <si>
+    <t>shan_yue_zhi_li</t>
+  </si>
+  <si>
+    <t>abilities/banshanjue/shan_yue_zhi_li</t>
+  </si>
+  <si>
+    <t>radius 500</t>
+  </si>
+  <si>
+    <t>point_cost_per_attack 5</t>
+  </si>
+  <si>
+    <t>max_stack 100</t>
+  </si>
+  <si>
+    <t>aura_radius 800</t>
+  </si>
+  <si>
+    <t>stun_duration_factor 0.05 0.08 0.11</t>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
+  </si>
+  <si>
+    <t>SPELL_DISPELLABLE_NO</t>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_NO</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+  </si>
+  <si>
+    <t>lei_dian_zhi_chu</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/lei_dian_zhi_chu</t>
+  </si>
+  <si>
+    <t>stack_speed_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>storm_spirit_overload</t>
+  </si>
+  <si>
+    <t>yu_lei_shu</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/yu_lei_shu</t>
+  </si>
+  <si>
+    <t>lei_dian_chang</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/lei_dian_chang</t>
+  </si>
+  <si>
+    <t>stack_per_interval 1 2 3</t>
+  </si>
+  <si>
+    <t>damage_factor 10 20 30</t>
+  </si>
+  <si>
+    <t>max_stack 10</t>
+  </si>
+  <si>
+    <t>razor_plasma_field</t>
+  </si>
+  <si>
+    <t>lei_dun</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/lei_dun</t>
+  </si>
+  <si>
+    <t>probability_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>storm_spirit_electric_vortex</t>
+  </si>
+  <si>
+    <t>lei_dun_shu</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/lei_dun_shu</t>
+  </si>
+  <si>
+    <t>speed 2000 3000 4000</t>
+  </si>
+  <si>
+    <t>storm_spirit_ball_lightning</t>
+  </si>
+  <si>
+    <t>wu_jin_lei_yu</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/wu_jin_lei_yu</t>
+  </si>
+  <si>
+    <t>force_of_rule_per_attack 5</t>
+  </si>
+  <si>
+    <t>base_attack_num 1</t>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+  </si>
+  <si>
+    <t>lei_tin_zhen_ji</t>
+  </si>
+  <si>
+    <t>abilities/yuleizhenjing/lei_tin_zhen_ji</t>
+  </si>
+  <si>
+    <t>duration_factor 0.01 0.015 0.02</t>
+  </si>
+  <si>
+    <t>luo_han_quan</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/luo_han_quan</t>
+  </si>
+  <si>
+    <t>damage_factor 40 60 80</t>
+  </si>
+  <si>
+    <t>width 200</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>jin_gang_zhao</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/jin_gang_zhao</t>
+  </si>
+  <si>
+    <t>buff_cost 1</t>
+  </si>
+  <si>
+    <t>jin_gang_hou</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/jin_gang_hou</t>
+  </si>
+  <si>
+    <t>distance 500 700 900</t>
+  </si>
+  <si>
+    <t>speed 1500</t>
+  </si>
+  <si>
+    <t>start_radius 50</t>
+  </si>
+  <si>
+    <t>end_radius 450</t>
+  </si>
+  <si>
+    <t>stun_factor 0.1 0.15 0.2</t>
+  </si>
+  <si>
+    <t>buff_cost 3</t>
+  </si>
+  <si>
+    <t>range 800</t>
+  </si>
+  <si>
+    <t>primal_beast_uproar</t>
+  </si>
+  <si>
+    <t>xu_mi_zhi</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/xu_mi_zhi</t>
+  </si>
+  <si>
+    <t>distance 800 1000 1200</t>
+  </si>
+  <si>
+    <t>speed 1000 1500 2000</t>
+  </si>
+  <si>
+    <t>angle_range 60</t>
+  </si>
+  <si>
+    <t>hou_che_bu</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/hou_che_bu</t>
+  </si>
+  <si>
+    <t>distance 600</t>
+  </si>
+  <si>
+    <t>speed 600 900 1200</t>
+  </si>
+  <si>
+    <t>marci_companion_run</t>
+  </si>
+  <si>
+    <t>shan_shen_ji</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/shan_shen_ji</t>
+  </si>
+  <si>
+    <t>damage_factor 80 120 160</t>
+  </si>
+  <si>
+    <t>cast_range 800</t>
+  </si>
+  <si>
+    <t>delay 0.2</t>
+  </si>
+  <si>
+    <t>earthshaker_echo_slam</t>
+  </si>
+  <si>
+    <t>da_shou_yin</t>
+  </si>
+  <si>
+    <t>abilities/jingangjue/da_shou_yin</t>
+  </si>
+  <si>
+    <t>damage_factor 150 225 300</t>
+  </si>
+  <si>
+    <t>move_speed_reduction_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>root_duration_factor 0.05 0.08 0.12</t>
+  </si>
+  <si>
+    <t>radius 300 400 500</t>
+  </si>
+  <si>
+    <t>buff_cost 5</t>
+  </si>
+  <si>
+    <t>slow_duration 1</t>
+  </si>
+  <si>
+    <t>shi_jian_yan_chi</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_yan_chi</t>
+  </si>
+  <si>
+    <t>delay_duration_factor 0.05 0.1 0.15</t>
+  </si>
+  <si>
+    <t>shi_jian_jia_su</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_jia_su</t>
+  </si>
+  <si>
+    <t>force_of_rule_level_per_attack 15 10 5</t>
+  </si>
+  <si>
+    <t>base_attack 1 2 3</t>
+  </si>
+  <si>
+    <t>attack_speed 3000</t>
+  </si>
+  <si>
+    <t>duration 10</t>
+  </si>
+  <si>
+    <t>dawnbreaker_fire_wreath</t>
+  </si>
+  <si>
+    <t>shi_jian_dui_ji</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_dui_ji</t>
+  </si>
+  <si>
+    <t>damage_increment_factor 0.02 0.04 0.06</t>
+  </si>
+  <si>
+    <t>increment_interval 1</t>
+  </si>
+  <si>
+    <t>10 8 5</t>
+  </si>
+  <si>
+    <t>oracle_fortunes_end</t>
+  </si>
+  <si>
+    <t>sui_yue_zhi_yan</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/sui_yue_zhi_yan</t>
+  </si>
+  <si>
+    <t>damage_factor 4 8 12</t>
+  </si>
+  <si>
+    <t>cast_range 800 1000 1200</t>
+  </si>
+  <si>
+    <t>distance 1500</t>
+  </si>
+  <si>
+    <t>speed 800</t>
+  </si>
+  <si>
+    <t>duration_factor 0.06 0.08 0.1</t>
+  </si>
+  <si>
+    <t>force_of_rule_reduction_factor  0.02 0.04 0.06</t>
+  </si>
+  <si>
+    <t>shi_jian_jian_shi</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_jian_shi</t>
+  </si>
+  <si>
+    <t>speed 800 1200 1600</t>
+  </si>
+  <si>
+    <t>distance 800 1200 1600</t>
+  </si>
+  <si>
+    <t>damage_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>duration 1 2 3</t>
+  </si>
+  <si>
+    <t>distance_factor 0.002 0.004 0.006</t>
+  </si>
+  <si>
+    <t>15 12 9</t>
+  </si>
+  <si>
+    <t>shi_jian_jie_yong</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_jie_yong</t>
+  </si>
+  <si>
+    <t>duration 8 12 16</t>
+  </si>
+  <si>
+    <t>point_factor 0.15 0.3 0.45</t>
+  </si>
+  <si>
+    <t>20 18 16</t>
+  </si>
+  <si>
+    <t>oracle_false_promise</t>
+  </si>
+  <si>
+    <t>shi_jian_ling_yu</t>
+  </si>
+  <si>
+    <t>abilities/suiyuejing/shi_jian_ling_yu</t>
+  </si>
+  <si>
+    <t>duration_factor 0.005 0.01 0.015</t>
+  </si>
+  <si>
+    <t>move_speed 600 800 1000</t>
+  </si>
+  <si>
+    <t>projectile_speed 10000</t>
+  </si>
+  <si>
+    <t>cast_time_percentage 90</t>
+  </si>
+  <si>
+    <t>20 15 10</t>
   </si>
 </sst>
 </file>
@@ -727,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -749,9 +1667,6 @@
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1073,42 +1988,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="11" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="8" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1162,14 +2080,17 @@
         <v>12</v>
       </c>
       <c r="X1" s="4"/>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1246,7 +2167,7 @@
       <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -1255,23 +2176,32 @@
       <c r="AA2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1294,51 +2224,54 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X3" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="2">
         <v>1</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1358,51 +2291,54 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X4" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1422,51 +2358,54 @@
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X5" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1486,51 +2425,54 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X6" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1550,48 +2492,51 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X7" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1612,51 +2557,54 @@
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X8" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="1"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1676,51 +2624,54 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X9" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="1"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1737,54 +2688,57 @@
         <v>2</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X10" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1804,51 +2758,54 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X11" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1868,51 +2825,54 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X12" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="1"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1932,51 +2892,54 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X13" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1996,48 +2959,51 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X14" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="1"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2058,51 +3024,54 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X15" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2122,48 +3091,51 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X16" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="1"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2184,48 +3156,51 @@
         <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X17" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2246,52 +3221,61 @@
         <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X18" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="1"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2305,50 +3289,53 @@
         <v>2</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X19" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2368,47 +3355,50 @@
         <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X20" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="2">
         <v>1</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2422,57 +3412,60 @@
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X21" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="2">
         <v>1</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2492,47 +3485,50 @@
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X22" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="2">
         <v>1</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
@@ -2552,51 +3548,60 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X23" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="2">
         <v>1</v>
       </c>
-      <c r="Z23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2606,53 +3611,58 @@
         <v>3</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X24" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="2">
         <v>1</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="33">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2661,7 +3671,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -2670,54 +3680,63 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X25" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="2">
         <v>1</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2726,72 +3745,61 @@
         <v>3</v>
       </c>
       <c r="P26" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>173</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2800,146 +3808,128 @@
         <v>3</v>
       </c>
       <c r="P27" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X27" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="60">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2">
         <v>3</v>
       </c>
       <c r="P28" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="X28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="33">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2948,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="P29" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>192</v>
@@ -2963,43 +3953,48 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="X29" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3016,51 +4011,52 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="X30" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+        <v>0.4</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="46.5">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3078,59 +4074,66 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="X31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>0.4</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
@@ -3141,64 +4144,61 @@
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X32" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="1"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -3214,34 +4214,3714 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="60">
+      <c r="A36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X33" s="4">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X37" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="33">
+      <c r="A38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>50</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="46.5">
+      <c r="A39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="2">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33">
+      <c r="A41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="2">
+        <v>3</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X42" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2">
+        <v>3</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="2">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="2">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="2">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="46.5">
+      <c r="A47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="2">
+        <v>3</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="33">
+      <c r="A48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="2">
+        <v>3</v>
+      </c>
+      <c r="P48" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X48" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="2">
+        <v>3</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X49" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="2">
+        <v>3</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X50" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2">
+        <v>3</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X52" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="33">
+      <c r="A53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="60">
+      <c r="A54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="2">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X54" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="46.5">
+      <c r="A55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="2">
+        <v>3</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X55" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="2">
+        <v>3</v>
+      </c>
+      <c r="P56" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="2">
+        <v>3</v>
+      </c>
+      <c r="P57" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="2">
+        <v>3</v>
+      </c>
+      <c r="P58" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X58" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="2">
+        <v>3</v>
+      </c>
+      <c r="P59" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="2">
+        <v>3</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X60" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="46.5">
+      <c r="A61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="2">
+        <v>3</v>
+      </c>
+      <c r="P61" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="2">
+        <v>3</v>
+      </c>
+      <c r="P62" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2">
+        <v>3</v>
+      </c>
+      <c r="P63" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X63" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="2">
+        <v>3</v>
+      </c>
+      <c r="P64" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X64" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="2">
+        <v>3</v>
+      </c>
+      <c r="P65" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="2">
+        <v>3</v>
+      </c>
+      <c r="P66" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="33">
+      <c r="A67" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="2">
+        <v>3</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="2">
+        <v>3</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="33">
+      <c r="A69" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="2">
+        <v>3</v>
+      </c>
+      <c r="P69" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X69" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="2">
+        <v>3</v>
+      </c>
+      <c r="P70" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X70" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="2">
+        <v>3</v>
+      </c>
+      <c r="P71" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="2">
+        <v>3</v>
+      </c>
+      <c r="P72" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X72" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="60">
+      <c r="A73" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="2">
+        <v>3</v>
+      </c>
+      <c r="P73" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="2">
+        <v>3</v>
+      </c>
+      <c r="P74" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X74" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="2">
+        <v>3</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>50</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X75" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="33">
+      <c r="A76" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="2">
+        <v>3</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="2">
+        <v>3</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="2">
+        <v>3</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X78" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="33">
+      <c r="A79" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="2">
+        <v>3</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>50</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X79" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="33">
+      <c r="A80" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="2">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X80" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="33">
+      <c r="A81" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="2">
+        <v>3</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="2">
+        <v>3</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="X82" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="33">
+      <c r="A83" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="2">
+        <v>3</v>
+      </c>
+      <c r="P83" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X83" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="33">
+      <c r="A84" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="2">
+        <v>3</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X84" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="33">
+      <c r="A85" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2">
+        <v>3</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="2">
+        <v>3</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X86" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="2">
+        <v>3</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X87" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="2">
+        <v>3</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X88" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="524">
   <si>
     <t>名字</t>
   </si>
@@ -406,18 +406,24 @@
     <t>abilities/necromancer_collection/summon_zombie</t>
   </si>
   <si>
-    <t>force_of_rule_per_zombie 5</t>
-  </si>
-  <si>
-    <t>health_bonus_factor 15 30 45</t>
-  </si>
-  <si>
-    <t>damage_bonus_factor 5 10 15</t>
+    <t>force_of_rule_per_zombie 15</t>
+  </si>
+  <si>
+    <t>health_bonus_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>damage_bonus_factor 1 2 3</t>
   </si>
   <si>
     <t>base_zombie_num 1</t>
   </si>
   <si>
+    <t>base_life 5</t>
+  </si>
+  <si>
+    <t>life_factor 0.05 0.1 0.15</t>
+  </si>
+  <si>
     <t>skeleton_king_vampiric_aura</t>
   </si>
   <si>
@@ -445,7 +451,7 @@
     <t>abilities/necromancer_collection/swallow_zombie</t>
   </si>
   <si>
-    <t>recovery_factor 50 100 150</t>
+    <t>recovery_factor 5 10 15</t>
   </si>
   <si>
     <t>base_recovery 100 200 300</t>
@@ -469,7 +475,7 @@
     <t>abilities/necromancer_collection/zombie_blast</t>
   </si>
   <si>
-    <t>damage_factor 1 2 3</t>
+    <t>damage_factor 2 4 6</t>
   </si>
   <si>
     <t>blast_radius 200 200 200</t>
@@ -484,207 +490,210 @@
     <t>abilities/necromancer_collection/shi_du</t>
   </si>
   <si>
-    <t>duration_factor 0.2 0.4 0.6</t>
+    <t>duration_factor 0.1 0.2 0.3</t>
+  </si>
+  <si>
+    <t>damage_interval 1</t>
+  </si>
+  <si>
+    <t>pugna_life_drain</t>
+  </si>
+  <si>
+    <t>fu_shen</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/fu_shen</t>
+  </si>
+  <si>
+    <t>health_factor 20 40 60</t>
+  </si>
+  <si>
+    <t>damage_factor 3 6 9</t>
+  </si>
+  <si>
+    <t>move_speed_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>attack_speed_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>cast_range 300</t>
+  </si>
+  <si>
+    <t>li_ti</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/li_ti</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>you_ming_ji_dian</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/you_ming_ji_dian</t>
+  </si>
+  <si>
+    <t>radius 300</t>
+  </si>
+  <si>
+    <t>cast_range 600 800 100</t>
+  </si>
+  <si>
+    <t>fire_damage_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>attack_stack_factor  0.1 0.2 0.3</t>
+  </si>
+  <si>
+    <t>attack_speed_stack_factor 0.1 0.15 0.2</t>
+  </si>
+  <si>
+    <t>summon_delay 2</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
+  </si>
+  <si>
+    <t>gui_wang_fire</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/gui_wang_fire</t>
+  </si>
+  <si>
+    <t>fire_radius 300</t>
+  </si>
+  <si>
+    <t>burning_interval 0.5</t>
+  </si>
+  <si>
+    <t>resentment_stacking</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/resentment_stacking</t>
+  </si>
+  <si>
+    <t>undying_tombstone</t>
+  </si>
+  <si>
+    <t>she_hun_lian_yu</t>
+  </si>
+  <si>
+    <t>abilities/necromancer_collection/she_hun_lian_yu</t>
+  </si>
+  <si>
+    <t>damage_interval 0.2</t>
+  </si>
+  <si>
+    <t>damage_factor 0.5 1 1.5</t>
+  </si>
+  <si>
+    <t>heal_percentage 10 20 30</t>
+  </si>
+  <si>
+    <t>search_radius 800</t>
+  </si>
+  <si>
+    <t>mana_cost_per_wave 10 20 30</t>
+  </si>
+  <si>
+    <t>prepare_time 3</t>
+  </si>
+  <si>
+    <t>100 150 200</t>
+  </si>
+  <si>
+    <t>death_prophet_spirit_siphon</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+  </si>
+  <si>
+    <t>sword_mean_stacking</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_mean_stacking</t>
+  </si>
+  <si>
+    <t>stacking_factor 0.1 0.2 0.3</t>
+  </si>
+  <si>
+    <t>max_stack_factor 3 6 9</t>
+  </si>
+  <si>
+    <t>interval 1</t>
+  </si>
+  <si>
+    <t>juggernaut_blade_dance</t>
+  </si>
+  <si>
+    <t>sword_shield</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_shield</t>
+  </si>
+  <si>
+    <t>damage_reduction_factor 0.3 0.6 0.9</t>
+  </si>
+  <si>
+    <t>sword_mean_cost_per_damage 1</t>
+  </si>
+  <si>
+    <t>juggernaut_blade_fury</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_TOGGLE | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>ju_jian_shu</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/ju_jian_shu</t>
+  </si>
+  <si>
+    <t>damage_factor 10 15 20</t>
+  </si>
+  <si>
+    <t>health_factor 10 15 20</t>
+  </si>
+  <si>
+    <t>charge_cost 5</t>
+  </si>
+  <si>
+    <t>life_factor 0.1 0.2 0.3</t>
+  </si>
+  <si>
+    <t>delay 0.5</t>
+  </si>
+  <si>
+    <t>cast_range 1000</t>
+  </si>
+  <si>
+    <t>sword_mean_accelerate</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_mean_accelerate</t>
+  </si>
+  <si>
+    <t>trigger_probabilty 10 15 20</t>
+  </si>
+  <si>
+    <t>juggernaut_swift_slash</t>
+  </si>
+  <si>
+    <t>sword_shot</t>
+  </si>
+  <si>
+    <t>abilities/swordmanship/sword_shot</t>
   </si>
   <si>
     <t>damage_factor 5 10 15</t>
   </si>
   <si>
-    <t>pugna_life_drain</t>
-  </si>
-  <si>
-    <t>fu_shen</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/fu_shen</t>
-  </si>
-  <si>
-    <t>health_factor 20 40 60</t>
-  </si>
-  <si>
-    <t>move_speed_factor 2 4 6</t>
-  </si>
-  <si>
-    <t>attack_speed_factor 3 6 9</t>
-  </si>
-  <si>
-    <t>cast_range 300</t>
-  </si>
-  <si>
-    <t>li_ti</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/li_ti</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-  </si>
-  <si>
-    <t>you_ming_ji_dian</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/you_ming_ji_dian</t>
-  </si>
-  <si>
-    <t>radius 300</t>
-  </si>
-  <si>
-    <t>cast_range 600 800 100</t>
-  </si>
-  <si>
-    <t>fire_damage_factor 10 20 30</t>
-  </si>
-  <si>
-    <t>attack_stack_factor  0.2 0.3 0.4</t>
-  </si>
-  <si>
-    <t>attack_speed_stack_factor 0.1 0.15 0.2</t>
-  </si>
-  <si>
-    <t>summon_delay 2</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
-  </si>
-  <si>
-    <t>gui_wang_fire</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/gui_wang_fire</t>
-  </si>
-  <si>
-    <t>fire_radius 300</t>
-  </si>
-  <si>
-    <t>burning_interval 0.5</t>
-  </si>
-  <si>
-    <t>resentment_stacking</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/resentment_stacking</t>
-  </si>
-  <si>
-    <t>undying_tombstone</t>
-  </si>
-  <si>
-    <t>she_hun_lian_yu</t>
-  </si>
-  <si>
-    <t>abilities/necromancer_collection/she_hun_lian_yu</t>
-  </si>
-  <si>
-    <t>damage_interval 0.2</t>
-  </si>
-  <si>
-    <t>heal_percentage 10 20 30</t>
-  </si>
-  <si>
-    <t>search_radius 800</t>
-  </si>
-  <si>
-    <t>mana_cost_per_wave 10 20 30</t>
-  </si>
-  <si>
-    <t>prepare_time 3</t>
-  </si>
-  <si>
-    <t>100 150 200</t>
-  </si>
-  <si>
-    <t>death_prophet_spirit_siphon</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CAST_ABILITY_2</t>
-  </si>
-  <si>
-    <t>sword_mean_stacking</t>
-  </si>
-  <si>
-    <t>abilities/swordmanship/sword_mean_stacking</t>
-  </si>
-  <si>
-    <t>stacking_factor 0.2 0.3 0.4</t>
-  </si>
-  <si>
-    <t>damage_factor 20 40 60</t>
-  </si>
-  <si>
-    <t>max_stack_factor 3 6 9</t>
-  </si>
-  <si>
-    <t>interval 1</t>
-  </si>
-  <si>
-    <t>juggernaut_blade_dance</t>
-  </si>
-  <si>
-    <t>sword_shield</t>
-  </si>
-  <si>
-    <t>abilities/swordmanship/sword_shield</t>
-  </si>
-  <si>
-    <t>damage_reduction_factor 1 2 3</t>
-  </si>
-  <si>
-    <t>sowrd_mean_cost_per_damage 1</t>
-  </si>
-  <si>
-    <t>juggernaut_blade_fury</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_TOGGLE | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-  </si>
-  <si>
-    <t>ju_jian_shu</t>
-  </si>
-  <si>
-    <t>abilities/swordmanship/ju_jian_shu</t>
-  </si>
-  <si>
-    <t>damage_factor 200 250 300</t>
-  </si>
-  <si>
-    <t>health_factor 50 75 100</t>
-  </si>
-  <si>
-    <t>charge_cost 5</t>
-  </si>
-  <si>
-    <t>life_factor 0.5 0.75 1</t>
-  </si>
-  <si>
-    <t>delay 0.5</t>
-  </si>
-  <si>
-    <t>cast_range 1000</t>
-  </si>
-  <si>
-    <t>sword_mean_accelerate</t>
-  </si>
-  <si>
-    <t>abilities/swordmanship/sword_mean_accelerate</t>
-  </si>
-  <si>
-    <t>trigger_probabilty 10 15 20</t>
-  </si>
-  <si>
-    <t>juggernaut_swift_slash</t>
-  </si>
-  <si>
-    <t>sword_shot</t>
-  </si>
-  <si>
-    <t>abilities/swordmanship/sword_shot</t>
-  </si>
-  <si>
-    <t>damage_factor 100 150 200</t>
-  </si>
-  <si>
     <t>basic_damage 100 250 400</t>
   </si>
   <si>
@@ -719,12 +728,6 @@
   </si>
   <si>
     <t>abilities/swordmanship/sword_rain</t>
-  </si>
-  <si>
-    <t>damage_factor 50 75 100</t>
-  </si>
-  <si>
-    <t>charge_cost 1</t>
   </si>
   <si>
     <t>charge_cost_per_sword 1</t>
@@ -755,9 +758,6 @@
     <t>abilities/swordmanship/jian_qi_zong_heng</t>
   </si>
   <si>
-    <t>damage_factor 25 50 75</t>
-  </si>
-  <si>
     <t>radius 1000</t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>abilities/xuanbingjue/ice_piton</t>
   </si>
   <si>
-    <t>primary_state_factor 100 150 200</t>
+    <t>primary_state_factor 5 10 15</t>
   </si>
   <si>
     <t>aoe_radius 300</t>
@@ -863,7 +863,7 @@
     <t>abilities/xuanbingjue/han_qi_ru_hun</t>
   </si>
   <si>
-    <t>damage_bonus_percentage 100 200 00</t>
+    <t>damage_bonus_percentage 100 200 300</t>
   </si>
   <si>
     <t>freezing_duration 3</t>
@@ -878,7 +878,10 @@
     <t>abilities/xuanbingjue/han_qi_fan_she</t>
   </si>
   <si>
-    <t>primary_state_factor 20 40 60</t>
+    <t>primary_state_factor 2 4 6</t>
+  </si>
+  <si>
+    <t>possibility_factor 0.5 1 1.5</t>
   </si>
   <si>
     <t>ice_gland</t>
@@ -902,10 +905,7 @@
     <t>abilities/xuanbingjue/xuan_han_ling_yu</t>
   </si>
   <si>
-    <t>primary_state_factor 20 30 40</t>
-  </si>
-  <si>
-    <t>damage_interval 1</t>
+    <t>primary_state_factor 4 8 12</t>
   </si>
   <si>
     <t>radius 800</t>
@@ -923,6 +923,9 @@
     <t>abilities/fentianjue/huo_dan_shu</t>
   </si>
   <si>
+    <t>basic_damage 20 40 60</t>
+  </si>
+  <si>
     <t>aoe_damage_percentage 0.5</t>
   </si>
   <si>
@@ -932,10 +935,7 @@
     <t>abilities/fentianjue/sheng_ming_zhuo_shao</t>
   </si>
   <si>
-    <t>primary_state_factor 5 10 15</t>
-  </si>
-  <si>
-    <t>duration_factor 0.5 1 1.5</t>
+    <t>primary_state_factor 1 2 3</t>
   </si>
   <si>
     <t>damage_interval 0.5</t>
@@ -956,7 +956,7 @@
     <t>debuff_duration 3</t>
   </si>
   <si>
-    <t>reduction_factor 0.5 1 1.5</t>
+    <t>reduction_factor 0.1 0.2 0.3</t>
   </si>
   <si>
     <t>zhuo_mu</t>
@@ -965,7 +965,7 @@
     <t>abilities/fentianjue/zhuo_mu</t>
   </si>
   <si>
-    <t>primary_state_factor 1 2 3</t>
+    <t>primary_state_factor 0.2 0.4 0.6</t>
   </si>
   <si>
     <t>fen_tian_zhi_yan</t>
@@ -974,9 +974,6 @@
     <t>abilities/fentianjue/fen_tian_zhi_yan</t>
   </si>
   <si>
-    <t>primary_state_factor 100 200 300</t>
-  </si>
-  <si>
     <t>radius 200</t>
   </si>
   <si>
@@ -992,6 +989,9 @@
     <t>base_duration 1.5</t>
   </si>
   <si>
+    <t>6 4 2</t>
+  </si>
+  <si>
     <t>ember_spirit_flame_guard</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>abilities/fentianjue/fen_tian_ling_yu</t>
   </si>
   <si>
-    <t>force_of_rule_per_flower 5</t>
+    <t>force_of_rule_per_flower 25</t>
   </si>
   <si>
     <t>base_flower_num 1</t>
@@ -1013,7 +1013,7 @@
     <t>abilities/xilingji/hui_chun_shu</t>
   </si>
   <si>
-    <t>health_heal_per_mana_factor 0.5 1 1.5</t>
+    <t>health_heal_per_mana_factor 0.15 0.3 0.45</t>
   </si>
   <si>
     <t>mana_cost_per_wave 1 2 3</t>
@@ -1028,21 +1028,21 @@
     <t>abilities/xilingji/zhong_ling_shu</t>
   </si>
   <si>
-    <t>primary_state_factor 75 125 200</t>
-  </si>
-  <si>
     <t>cast_range 2000</t>
   </si>
   <si>
     <t>tree_base_life 5</t>
   </si>
   <si>
-    <t>life_factor 1</t>
+    <t>life_factor 0.1</t>
   </si>
   <si>
     <t>base_damage 50 100 150</t>
   </si>
   <si>
+    <t>health_factor 10 20 30</t>
+  </si>
+  <si>
     <t>hoodwink_sharpshooter</t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
     <t>abilities/xilingji/ji_sheng</t>
   </si>
   <si>
-    <t>mana_recover_factor 2 4 6</t>
+    <t>mana_recover_factor 0.5 1 1.5</t>
   </si>
   <si>
     <t>damage_percentage 4 8 12</t>
@@ -1061,9 +1061,6 @@
     <t>recover_interval 1</t>
   </si>
   <si>
-    <t>duration_factor 1</t>
-  </si>
-  <si>
     <t>treant_leech_seed</t>
   </si>
   <si>
@@ -1073,13 +1070,10 @@
     <t>abilities/xilingji/fu_su</t>
   </si>
   <si>
-    <t>attack_factor 10 20 30</t>
-  </si>
-  <si>
-    <t>attack_speed_factor 10 20 30</t>
-  </si>
-  <si>
-    <t>bound_duration_factor 0.1 0.15 0.2</t>
+    <t>attack_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>bound_duration_factor 0.03 0.06 0.09</t>
   </si>
   <si>
     <t>radius 400</t>
@@ -1094,7 +1088,7 @@
     <t>abilities/xilingji/sheng_ming_lian_jie</t>
   </si>
   <si>
-    <t>damage_percentage_factor 0.5 1 1.5</t>
+    <t>damage_percentage_factor 0.3 0.6 0.9</t>
   </si>
   <si>
     <t>zhuan_sheng_shu</t>
@@ -1103,7 +1097,7 @@
     <t>abilities/xilingji/zhuan_sheng_shu</t>
   </si>
   <si>
-    <t>cold_down_reduction_factor 0.8 1 1.2</t>
+    <t>cold_down_reduction_factor 0.2 0.4 0.6</t>
   </si>
   <si>
     <t>base_cold_down 60</t>
@@ -1127,7 +1121,7 @@
     <t>mana_cost_per_tick 50 75 100</t>
   </si>
   <si>
-    <t>probability_factor 1 1.5 2</t>
+    <t>probability_factor 0.5 1 1.5</t>
   </si>
   <si>
     <t>treant_natures_grasp</t>
@@ -1139,7 +1133,7 @@
     <t>abilities/banshanjue/yan_dun</t>
   </si>
   <si>
-    <t>block_factor 10 15 20</t>
+    <t>block_factor 3 6 9</t>
   </si>
   <si>
     <t>pangolier_shield_crash</t>
@@ -1193,9 +1187,6 @@
     <t>abilities/banshanjue/shi_bao_shu</t>
   </si>
   <si>
-    <t>damage_factor 50 80 110</t>
-  </si>
-  <si>
     <t>radius 1500</t>
   </si>
   <si>
@@ -1211,10 +1202,10 @@
     <t>abilities/banshanjue/zhong_li_chang</t>
   </si>
   <si>
-    <t>move_speed_reduction_factor 5 10 15</t>
-  </si>
-  <si>
-    <t>attack_speed_reduction_factor 5 8 10</t>
+    <t>move_speed_reduction_factor 1 2 3</t>
+  </si>
+  <si>
+    <t>attack_speed_reduction_factor 1 2 3</t>
   </si>
   <si>
     <t>shan_yue_zhi_li</t>
@@ -1235,7 +1226,7 @@
     <t>aura_radius 800</t>
   </si>
   <si>
-    <t>stun_duration_factor 0.05 0.08 0.11</t>
+    <t>stun_duration_factor 0.02 0.04 0.06</t>
   </si>
   <si>
     <t>tiny_grow</t>
@@ -1259,7 +1250,10 @@
     <t>abilities/yuleizhenjing/lei_dian_zhi_chu</t>
   </si>
   <si>
-    <t>stack_speed_factor 2 4 6</t>
+    <t>damage_factor 0.05 0.1 0.15</t>
+  </si>
+  <si>
+    <t>stack_speed_factor 0.2 0.4 0.6</t>
   </si>
   <si>
     <t>storm_spirit_overload</t>
@@ -1280,7 +1274,7 @@
     <t>stack_per_interval 1 2 3</t>
   </si>
   <si>
-    <t>damage_factor 10 20 30</t>
+    <t>damage_factor 0.4 0.8 1.2</t>
   </si>
   <si>
     <t>max_stack 10</t>
@@ -1295,7 +1289,10 @@
     <t>abilities/yuleizhenjing/lei_dun</t>
   </si>
   <si>
-    <t>probability_factor 1 2 3</t>
+    <t>damage_factor 0.3 0.6 0.9</t>
+  </si>
+  <si>
+    <t>probability_factor 0.3 0.6 0.9</t>
   </si>
   <si>
     <t>storm_spirit_electric_vortex</t>
@@ -1319,7 +1316,7 @@
     <t>abilities/yuleizhenjing/wu_jin_lei_yu</t>
   </si>
   <si>
-    <t>force_of_rule_per_attack 5</t>
+    <t>force_of_rule_per_attack 25</t>
   </si>
   <si>
     <t>base_attack_num 1</t>
@@ -1343,9 +1340,6 @@
     <t>abilities/jingangjue/luo_han_quan</t>
   </si>
   <si>
-    <t>damage_factor 40 60 80</t>
-  </si>
-  <si>
     <t>width 200</t>
   </si>
   <si>
@@ -1358,6 +1352,12 @@
     <t>abilities/jingangjue/jin_gang_zhao</t>
   </si>
   <si>
+    <t>damage_factor 4 8 12</t>
+  </si>
+  <si>
+    <t>duration_factor 0.3</t>
+  </si>
+  <si>
     <t>buff_cost 1</t>
   </si>
   <si>
@@ -1379,7 +1379,7 @@
     <t>end_radius 450</t>
   </si>
   <si>
-    <t>stun_factor 0.1 0.15 0.2</t>
+    <t>stun_factor 0.3 0.6 0.9</t>
   </si>
   <si>
     <t>buff_cost 3</t>
@@ -1427,9 +1427,6 @@
     <t>abilities/jingangjue/shan_shen_ji</t>
   </si>
   <si>
-    <t>damage_factor 80 120 160</t>
-  </si>
-  <si>
     <t>cast_range 800</t>
   </si>
   <si>
@@ -1445,10 +1442,7 @@
     <t>abilities/jingangjue/da_shou_yin</t>
   </si>
   <si>
-    <t>damage_factor 150 225 300</t>
-  </si>
-  <si>
-    <t>move_speed_reduction_factor 1 2 3</t>
+    <t>move_speed_reduction_factor 0.5 1 1.5</t>
   </si>
   <si>
     <t>root_duration_factor 0.05 0.08 0.12</t>
@@ -1478,7 +1472,7 @@
     <t>abilities/suiyuejing/shi_jian_jia_su</t>
   </si>
   <si>
-    <t>force_of_rule_level_per_attack 15 10 5</t>
+    <t>force_of_rule_level_per_attack 20 15 10</t>
   </si>
   <si>
     <t>base_attack 1 2 3</t>
@@ -1499,7 +1493,7 @@
     <t>abilities/suiyuejing/shi_jian_dui_ji</t>
   </si>
   <si>
-    <t>damage_increment_factor 0.02 0.04 0.06</t>
+    <t>damage_increment_factor 0.001 0.002 0.003</t>
   </si>
   <si>
     <t>increment_interval 1</t>
@@ -1517,7 +1511,7 @@
     <t>abilities/suiyuejing/sui_yue_zhi_yan</t>
   </si>
   <si>
-    <t>damage_factor 4 8 12</t>
+    <t>damage_factor 1 2 3</t>
   </si>
   <si>
     <t>cast_range 800 1000 1200</t>
@@ -1547,13 +1541,10 @@
     <t>distance 800 1200 1600</t>
   </si>
   <si>
-    <t>damage_factor 2 4 6</t>
-  </si>
-  <si>
     <t>duration 1 2 3</t>
   </si>
   <si>
-    <t>distance_factor 0.002 0.004 0.006</t>
+    <t>distance_factor 0.0005 0.001 0.0015</t>
   </si>
   <si>
     <t>15 12 9</t>
@@ -1583,7 +1574,7 @@
     <t>abilities/suiyuejing/shi_jian_ling_yu</t>
   </si>
   <si>
-    <t>duration_factor 0.005 0.01 0.015</t>
+    <t>duration_factor 0.015 0.03 0.045</t>
   </si>
   <si>
     <t>move_speed 600 800 1000</t>
@@ -1996,16 +1987,16 @@
   <cols>
     <col min="1" max="1" style="8" width="25.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="23.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="47.86214285714286" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="10" width="35.86214285714286" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="10" width="31.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="10" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -3276,8 +3267,12 @@
       <c r="H19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3292,10 +3287,10 @@
         <v>90</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -3322,20 +3317,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3355,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>61</v>
@@ -3385,20 +3380,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3412,22 +3407,22 @@
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
@@ -3452,20 +3447,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3485,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>61</v>
@@ -3515,22 +3510,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3548,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>61</v>
@@ -3578,29 +3575,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3617,16 +3614,16 @@
         <v>90</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
@@ -3651,13 +3648,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="33">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
@@ -3680,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -3710,32 +3707,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3751,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -3781,20 +3778,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="2"/>
@@ -3814,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>61</v>
@@ -3844,13 +3841,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
@@ -3873,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>61</v>
@@ -3903,32 +3900,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3941,19 +3938,19 @@
         <v>5</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X29" s="4">
         <v>0.2</v>
@@ -3974,26 +3971,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>61</v>
@@ -4041,20 +4038,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="46.5">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="2"/>
@@ -4074,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -4104,35 +4101,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4147,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>92</v>
@@ -4183,17 +4180,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -4214,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>61</v>
@@ -4244,23 +4241,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4279,7 +4276,7 @@
         <v>90</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>92</v>
@@ -4315,29 +4312,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -4354,7 +4351,7 @@
         <v>90</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>92</v>
@@ -4390,36 +4387,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="60">
       <c r="A36" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>236</v>
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
@@ -4433,10 +4428,10 @@
         <v>90</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>52</v>
@@ -4446,7 +4441,7 @@
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X36" s="4">
         <v>0.2</v>
@@ -4473,17 +4468,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="5" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>247</v>
@@ -4506,7 +4501,7 @@
         <v>90</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>61</v>
@@ -4515,7 +4510,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X37" s="4">
         <v>0.2</v>
@@ -4580,7 +4575,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X38" s="4">
         <v>0.2</v>
@@ -4639,13 +4634,13 @@
         <v>258</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X39" s="4">
         <v>0.2</v>
@@ -4710,7 +4705,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X40" s="4">
         <v>0.2</v>
@@ -4769,7 +4764,7 @@
         <v>269</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>52</v>
@@ -5011,7 +5006,9 @@
       <c r="E45" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5060,23 +5057,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>267</v>
@@ -5097,7 +5094,7 @@
         <v>90</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>92</v>
@@ -5131,20 +5128,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="46.5">
       <c r="A47" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>297</v>
@@ -5165,19 +5162,19 @@
         <v>2</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>299</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X47" s="4">
         <v>0.2</v>
@@ -5208,16 +5205,16 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="5" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>268</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -5238,7 +5235,7 @@
         <v>300</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>52</v>
@@ -5248,7 +5245,7 @@
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X48" s="4">
         <v>0.2</v>
@@ -5269,20 +5266,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>307</v>
@@ -5304,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>61</v>
@@ -5347,7 +5344,7 @@
         <v>126</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>307</v>
@@ -5539,25 +5536,25 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="K53" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -5565,8 +5562,8 @@
       <c r="O53" s="2">
         <v>3</v>
       </c>
-      <c r="P53" s="2">
-        <v>0</v>
+      <c r="P53" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>90</v>
@@ -5575,7 +5572,7 @@
         <v>325</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>52</v>
@@ -5616,10 +5613,10 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>328</v>
@@ -5628,13 +5625,13 @@
         <v>298</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>329</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -5646,19 +5643,19 @@
         <v>2</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>326</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X54" s="4">
         <v>0.2</v>
@@ -5717,13 +5714,13 @@
         <v>123</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X55" s="4">
         <v>0.2</v>
@@ -5754,25 +5751,25 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="K56" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -5840,7 +5837,7 @@
         <v>347</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -5858,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>61</v>
@@ -5888,29 +5885,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="H58" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5924,13 +5921,13 @@
         <v>2</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -5957,17 +5954,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>297</v>
@@ -5990,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>61</v>
@@ -6020,26 +6017,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="7" t="s">
         <v>297</v>
       </c>
       <c r="F60" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -6051,13 +6048,13 @@
         <v>3</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>61</v>
@@ -6087,26 +6084,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="46.5">
       <c r="A61" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -6124,16 +6121,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X61" s="4">
         <v>0.2</v>
@@ -6154,17 +6151,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2"/>
@@ -6185,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>61</v>
@@ -6194,7 +6191,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X62" s="4">
         <v>0.2</v>
@@ -6215,38 +6212,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="1"/>
@@ -6260,7 +6257,7 @@
         <v>90</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>92</v>
@@ -6269,7 +6266,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X63" s="4">
         <v>0.2</v>
@@ -6290,35 +6287,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -6333,10 +6330,10 @@
         <v>90</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>52</v>
@@ -6346,7 +6343,7 @@
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X64" s="4">
         <v>0.2</v>
@@ -6369,26 +6366,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="5" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -6406,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>61</v>
@@ -6440,20 +6437,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>297</v>
@@ -6475,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>61</v>
@@ -6509,32 +6506,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="33">
       <c r="A67" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="J67" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -6550,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>52</v>
@@ -6570,13 +6567,13 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC67" s="1"/>
       <c r="AD67" s="2"/>
@@ -6586,26 +6583,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5" t="s">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -6623,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>61</v>
@@ -6639,13 +6636,13 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC68" s="1"/>
       <c r="AD68" s="2"/>
@@ -6655,20 +6652,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="33">
       <c r="A69" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -6691,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>52</v>
@@ -6708,13 +6705,13 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="2"/>
@@ -6724,25 +6721,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -6757,7 +6756,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>61</v>
@@ -6783,20 +6782,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -6814,7 +6813,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>61</v>
@@ -6840,23 +6839,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>297</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -6875,7 +6874,7 @@
         <v>90</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>92</v>
@@ -6901,35 +6900,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="60">
       <c r="A73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>298</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -6941,19 +6940,19 @@
         <v>2</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X73" s="4">
         <v>0.2</v>
@@ -6974,17 +6973,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="2"/>
@@ -7003,7 +7002,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>61</v>
@@ -7029,23 +7028,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="5" t="s">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -7064,7 +7063,7 @@
         <v>50</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>92</v>
@@ -7073,7 +7072,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X75" s="4">
         <v>0.2</v>
@@ -7090,20 +7089,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="33">
       <c r="A76" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="5" t="s">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>447</v>
@@ -7119,16 +7118,16 @@
         <v>3</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -7159,7 +7158,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="5" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>450</v>
@@ -7188,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>90</v>
@@ -7203,7 +7202,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X77" s="4">
         <v>0.2</v>
@@ -7230,7 +7229,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="5" t="s">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>460</v>
@@ -7253,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>90</v>
@@ -7268,7 +7267,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X78" s="4">
         <v>0.2</v>
@@ -7312,7 +7311,7 @@
         <v>3</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q79" s="2">
         <v>50</v>
@@ -7321,13 +7320,13 @@
         <v>467</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X79" s="4">
         <v>0.2</v>
@@ -7354,19 +7353,19 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>455</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -7377,22 +7376,22 @@
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X80" s="4">
         <v>0.2</v>
@@ -7409,38 +7408,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="33">
       <c r="A81" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="I81" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H81" s="7" t="s">
+      <c r="J81" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="K81" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="L81" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="1"/>
@@ -7448,22 +7447,22 @@
         <v>3</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X81" s="4">
         <v>0.2</v>
@@ -7480,20 +7479,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -7513,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>61</v>
@@ -7522,7 +7521,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X82" s="4">
         <v>0.2</v>
@@ -7539,26 +7538,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="33">
       <c r="A83" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="H83" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -7576,10 +7575,10 @@
         <v>90</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -7602,23 +7601,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="33">
       <c r="A84" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="5" t="s">
         <v>297</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -7631,16 +7630,16 @@
         <v>3</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -7663,38 +7662,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="33">
       <c r="A85" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="K85" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="1"/>
@@ -7702,16 +7701,16 @@
         <v>3</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -7732,34 +7731,34 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>510</v>
+        <v>153</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -7769,13 +7768,13 @@
         <v>3</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>92</v>
@@ -7799,27 +7798,27 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="33">
       <c r="A87" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -7828,16 +7827,16 @@
         <v>3</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -7858,33 +7857,33 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="33">
       <c r="A88" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="J88" s="7"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -7893,16 +7892,16 @@
         <v>3</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>90</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
